--- a/3.1 Diccionario de datos base Indicadores.xlsx
+++ b/3.1 Diccionario de datos base Indicadores.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Formularios_DS4A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rodriguez\Documents\GitHub\Formularios_DS4A_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F7DD1B-E864-4B23-BDD0-409B35413BB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE57649-79AB-45B5-894A-C95DBA0A064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atractivos Bogotá " sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Atractivos Bogotá '!$A$1:$B$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,7 +87,7 @@
     <t>Base de datos que contiene los diferentes indicadores de interes manejados por el Observatorio de Turismo de Botogá.</t>
   </si>
   <si>
-    <t>Base de Datos Indicadores de Turismo</t>
+    <t>3.1 Diccionario de datos base Indicadores</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
@@ -643,6 +646,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>